--- a/data/trans_dic/P3A$otraNOcobra-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraNOcobra-Habitat-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.04758269772733806</v>
+        <v>0.04758269772733805</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0502697499844687</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.04896768167230265</v>
+        <v>0.04896768167230267</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03586017998966129</v>
+        <v>0.03514855495911298</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03970528841455464</v>
+        <v>0.03994013297609263</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04011380528520653</v>
+        <v>0.04042188957011096</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06336610533609233</v>
+        <v>0.06122839703797216</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06259386003523636</v>
+        <v>0.06207713879773111</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05779746520230913</v>
+        <v>0.05834192309022085</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.02882974107464821</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04426302315744793</v>
+        <v>0.04426302315744792</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03662847332125452</v>
+        <v>0.03662847332125453</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02092521056441312</v>
+        <v>0.02079734031933599</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03620816835454763</v>
+        <v>0.03585925600335672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03073715007124089</v>
+        <v>0.03062910769671387</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03881251637262204</v>
+        <v>0.03837885144492761</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05426584176947958</v>
+        <v>0.05433508502162911</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04377842752381154</v>
+        <v>0.04329548990253208</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02330530144912512</v>
+        <v>0.02330530144912513</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.04730530450613485</v>
+        <v>0.04730530450613486</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0353735417941179</v>
+        <v>0.03537354179411788</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0150704429115468</v>
+        <v>0.0147438258429774</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03578344103298247</v>
+        <v>0.03656893783220945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02803596789478955</v>
+        <v>0.02737384594147281</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03568667550623546</v>
+        <v>0.03541902076337837</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06320656825301661</v>
+        <v>0.06116736051809896</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0441160685326076</v>
+        <v>0.04305683661725607</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.02521612360660205</v>
+        <v>0.02521612360660206</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.03209882062348732</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0288670704026617</v>
+        <v>0.02886707040266169</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01763526533280212</v>
+        <v>0.01758680855859135</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02439356494344117</v>
+        <v>0.02417753027612429</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02314217668001042</v>
+        <v>0.02318463533314649</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03723494534134627</v>
+        <v>0.03733427064327097</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04078444639392823</v>
+        <v>0.04078080856665665</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0354620156729258</v>
+        <v>0.03587523078811165</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.04246524877948674</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03651752654509246</v>
+        <v>0.03651752654509247</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02566911227969762</v>
+        <v>0.02550841957791017</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03775819779883305</v>
+        <v>0.03755090880979461</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03313003311838535</v>
+        <v>0.03292345146399262</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03593580649560927</v>
+        <v>0.03561959450647068</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04777250185007053</v>
+        <v>0.04741277073446185</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04028452132586065</v>
+        <v>0.040406821687683</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24752</v>
+        <v>24260</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29151</v>
+        <v>29323</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>57138</v>
+        <v>57577</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43737</v>
+        <v>42261</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45955</v>
+        <v>45576</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>82327</v>
+        <v>83103</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21949</v>
+        <v>21815</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>38796</v>
+        <v>38422</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>65175</v>
+        <v>64946</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>40711</v>
+        <v>40256</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>58144</v>
+        <v>58219</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>92827</v>
+        <v>91803</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12103</v>
+        <v>11840</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29065</v>
+        <v>29703</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45287</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28659</v>
+        <v>28444</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>51340</v>
+        <v>49684</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>71262</v>
+        <v>69551</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17449</v>
+        <v>17401</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>27267</v>
+        <v>27026</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>48766</v>
+        <v>48856</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36842</v>
+        <v>36940</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45589</v>
+        <v>45585</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>74727</v>
+        <v>75598</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>90655</v>
+        <v>90087</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>141054</v>
+        <v>140279</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>240768</v>
+        <v>239267</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>126913</v>
+        <v>125797</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>178464</v>
+        <v>177120</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>292763</v>
+        <v>293652</v>
       </c>
     </row>
     <row r="24">
